--- a/Team-Data/2014-15/12-24-2014-15.xlsx
+++ b/Team-Data/2014-15/12-24-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
@@ -774,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>14</v>
@@ -804,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -965,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -1001,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1123,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1138,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1162,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1174,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1308,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>25</v>
@@ -1335,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1690,19 +1757,19 @@
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -1827,28 +1894,28 @@
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>110</v>
+        <v>109.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1863,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1875,16 +1942,16 @@
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1899,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>9</v>
@@ -2081,13 +2148,13 @@
         <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,13 +2279,13 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -2248,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,13 +2467,13 @@
         <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.731</v>
+        <v>0.741</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J12" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.425</v>
@@ -2513,61 +2580,61 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U12" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V12" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>29</v>
-      </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>2</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
@@ -2597,10 +2664,10 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2624,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2770,7 +2837,7 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2958,16 +3025,16 @@
         <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>28</v>
@@ -2982,13 +3049,13 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.321</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z15" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA15" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,10 +3189,10 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
@@ -3143,34 +3210,34 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>3</v>
       </c>
       <c r="AW15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX15" t="n">
         <v>15</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,13 +3246,13 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB15" t="n">
         <v>12</v>
       </c>
-      <c r="BB15" t="n">
-        <v>10</v>
-      </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3325,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3340,13 +3407,13 @@
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>11</v>
@@ -3355,7 +3422,7 @@
         <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-3.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3495,13 +3562,13 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3537,7 +3604,7 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -3722,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3886,7 +3953,7 @@
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
         <v>13</v>
@@ -3901,10 +3968,10 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.481</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,142 +4027,142 @@
         <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O20" t="n">
         <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
         <v>22</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS20" t="n">
         <v>20</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>21</v>
-      </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4256,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>19</v>
@@ -4268,16 +4335,16 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>1.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>17</v>
@@ -4408,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4420,13 +4487,13 @@
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>6</v>
@@ -4441,10 +4508,10 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.367</v>
+        <v>0.355</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.375</v>
       </c>
       <c r="O23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
         <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,7 +4639,7 @@
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -4581,19 +4648,19 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>6</v>
@@ -4611,34 +4678,34 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW23" t="n">
         <v>25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>23</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4811,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,22 +5009,22 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5187,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.607</v>
+        <v>0.621</v>
       </c>
       <c r="H28" t="n">
         <v>49.4</v>
@@ -5416,52 +5483,52 @@
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>19.3</v>
@@ -5470,13 +5537,13 @@
         <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5491,28 +5558,28 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>13</v>
@@ -5524,22 +5591,22 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>5</v>
@@ -5548,7 +5615,7 @@
         <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>3</v>
@@ -5679,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
         <v>26</v>
@@ -5861,16 +5928,16 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
@@ -5903,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>3.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>7</v>
@@ -6034,13 +6101,13 @@
         <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6058,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6091,13 +6158,13 @@
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-24-2014-15</t>
+          <t>2014-12-24</t>
         </is>
       </c>
     </row>
